--- a/biology/Zoologie/Chaetodon_bennetti/Chaetodon_bennetti.xlsx
+++ b/biology/Zoologie/Chaetodon_bennetti/Chaetodon_bennetti.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chaetodon bennetti
 Le Poisson-papillon de Bennett (Chaetodon bennetti) est une espèce de poissons de la famille des Chaetodontidae.
@@ -512,7 +524,9 @@
           <t>Sous-genre</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le poisson-papillon de Bennett est un poisson-papillon qui fait partie du sous-genre Tetrachaetodon. En 1984, André Maugé et Roland Bauchot ont proposé de l'affecter à leur nouveau genre Nalbantius, ce qui donnerait comme nom scientifique pour ce poisson Nalbantius bennetti.
 </t>
@@ -543,7 +557,9 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Taille : au maximum 15 à 18 cm.
 Sa coloration est jaune, avec deux lignes bleutées partant de l'avant et descendant vers l'arrière du corps, une tache noire bordée de bleuté, de forme ronde, et une barre noire passant par l'œil.
@@ -575,7 +591,9 @@
           <t>Biologie et écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un poisson corallien, et qui se nourrit de corail et d'invertébrés.
 </t>
@@ -606,7 +624,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le poisson-papillon de Bennett se rencontre dans l'océan Indien et l'ouest de l'océan Pacifique.
 </t>
@@ -637,7 +657,9 @@
           <t>Usage</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce poisson peut se rencontrer en aquarium, mais il n'est pas conseillé, car difficile à nourrir.
 </t>
